--- a/Python/datasets/pokemon_data.xlsx
+++ b/Python/datasets/pokemon_data.xlsx
@@ -2517,7 +2517,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2528,6 +2528,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2561,13 +2567,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2936,7 +2942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2974,7 +2980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3012,7 +3018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3050,7 +3056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3124,7 +3130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3198,7 +3204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -3236,7 +3242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -3274,7 +3280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -3310,7 +3316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -3346,7 +3352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -3382,7 +3388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -3418,7 +3424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -3454,7 +3460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -3490,7 +3496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -3528,7 +3534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -3566,7 +3572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -3604,7 +3610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -3642,7 +3648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3">
         <v>16</v>
       </c>
@@ -3718,7 +3724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3">
         <v>17</v>
       </c>
@@ -3756,7 +3762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3">
         <v>18</v>
       </c>
@@ -3794,7 +3800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3">
         <v>18</v>
       </c>
@@ -3832,7 +3838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3">
         <v>19</v>
       </c>
@@ -3868,7 +3874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="3">
         <v>20</v>
       </c>
@@ -3904,7 +3910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="3">
         <v>21</v>
       </c>
@@ -3942,7 +3948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="3">
         <v>22</v>
       </c>
@@ -3980,7 +3986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="3">
         <v>23</v>
       </c>
@@ -4016,7 +4022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="3">
         <v>24</v>
       </c>
@@ -4052,7 +4058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="3">
         <v>25</v>
       </c>
@@ -4088,7 +4094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="3">
         <v>26</v>
       </c>
@@ -4124,7 +4130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="3">
         <v>27</v>
       </c>
@@ -4160,7 +4166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="3">
         <v>28</v>
       </c>
@@ -4196,7 +4202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="3">
         <v>29</v>
       </c>
@@ -4232,7 +4238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="3">
         <v>30</v>
       </c>
@@ -4268,7 +4274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="3">
         <v>31</v>
       </c>
@@ -4306,7 +4312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="3">
         <v>32</v>
       </c>
@@ -4342,7 +4348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="3">
         <v>33</v>
       </c>
